--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.200698666666666</v>
+        <v>3.868321</v>
       </c>
       <c r="H2">
-        <v>24.602096</v>
+        <v>11.604963</v>
       </c>
       <c r="I2">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="J2">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.30349533333333</v>
+        <v>5.358887333333333</v>
       </c>
       <c r="N2">
-        <v>30.910486</v>
+        <v>16.076662</v>
       </c>
       <c r="O2">
-        <v>0.376060741358942</v>
+        <v>0.2748740608528603</v>
       </c>
       <c r="P2">
-        <v>0.376060741358942</v>
+        <v>0.2748740608528603</v>
       </c>
       <c r="Q2">
-        <v>84.49586044207287</v>
+        <v>20.72989640816733</v>
       </c>
       <c r="R2">
-        <v>760.4627439786559</v>
+        <v>186.569067673506</v>
       </c>
       <c r="S2">
-        <v>0.1287433500124864</v>
+        <v>0.0541198850129181</v>
       </c>
       <c r="T2">
-        <v>0.1287433500124864</v>
+        <v>0.0541198850129181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.200698666666666</v>
+        <v>3.868321</v>
       </c>
       <c r="H3">
-        <v>24.602096</v>
+        <v>11.604963</v>
       </c>
       <c r="I3">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="J3">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.927949666666666</v>
+        <v>7.927949666666668</v>
       </c>
       <c r="N3">
         <v>23.783849</v>
       </c>
       <c r="O3">
-        <v>0.2893572067197239</v>
+        <v>0.4066492881010524</v>
       </c>
       <c r="P3">
-        <v>0.2893572067197238</v>
+        <v>0.4066492881010524</v>
       </c>
       <c r="Q3">
-        <v>65.01472626083377</v>
+        <v>30.66785418250967</v>
       </c>
       <c r="R3">
-        <v>585.1325363475039</v>
+        <v>276.010687642587</v>
       </c>
       <c r="S3">
-        <v>0.09906063581307407</v>
+        <v>0.08006507650932809</v>
       </c>
       <c r="T3">
-        <v>0.09906063581307407</v>
+        <v>0.08006507650932809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.200698666666666</v>
+        <v>3.868321</v>
       </c>
       <c r="H4">
-        <v>24.602096</v>
+        <v>11.604963</v>
       </c>
       <c r="I4">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="J4">
-        <v>0.3423472217473603</v>
+        <v>0.1968897496002302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.167042</v>
+        <v>6.208954333333334</v>
       </c>
       <c r="N4">
-        <v>27.501126</v>
+        <v>18.626863</v>
       </c>
       <c r="O4">
-        <v>0.3345820519213343</v>
+        <v>0.3184766510460874</v>
       </c>
       <c r="P4">
-        <v>0.3345820519213342</v>
+        <v>0.3184766510460873</v>
       </c>
       <c r="Q4">
-        <v>75.17614910667733</v>
+        <v>24.01822843567433</v>
       </c>
       <c r="R4">
-        <v>676.585341960096</v>
+        <v>216.164055921069</v>
       </c>
       <c r="S4">
-        <v>0.1145432359217998</v>
+        <v>0.06270478807798403</v>
       </c>
       <c r="T4">
-        <v>0.1145432359217998</v>
+        <v>0.06270478807798403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>31.88443</v>
       </c>
       <c r="I5">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="J5">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.30349533333333</v>
+        <v>5.358887333333333</v>
       </c>
       <c r="N5">
-        <v>30.910486</v>
+        <v>16.076662</v>
       </c>
       <c r="O5">
-        <v>0.376060741358942</v>
+        <v>0.2748740608528603</v>
       </c>
       <c r="P5">
-        <v>0.376060741358942</v>
+        <v>0.2748740608528603</v>
       </c>
       <c r="Q5">
-        <v>109.5070252369978</v>
+        <v>56.95502268585111</v>
       </c>
       <c r="R5">
-        <v>985.56322713298</v>
+        <v>512.59520417266</v>
       </c>
       <c r="S5">
-        <v>0.1668519760039398</v>
+        <v>0.1486934241240094</v>
       </c>
       <c r="T5">
-        <v>0.1668519760039398</v>
+        <v>0.1486934241240094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>31.88443</v>
       </c>
       <c r="I6">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="J6">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.927949666666666</v>
+        <v>7.927949666666668</v>
       </c>
       <c r="N6">
         <v>23.783849</v>
       </c>
       <c r="O6">
-        <v>0.2893572067197239</v>
+        <v>0.4066492881010524</v>
       </c>
       <c r="P6">
-        <v>0.2893572067197238</v>
+        <v>0.4066492881010524</v>
       </c>
       <c r="Q6">
-        <v>84.25938539678555</v>
+        <v>84.25938539678558</v>
       </c>
       <c r="R6">
-        <v>758.3344685710699</v>
+        <v>758.3344685710701</v>
       </c>
       <c r="S6">
-        <v>0.1283830413610878</v>
+        <v>0.2199773775587493</v>
       </c>
       <c r="T6">
-        <v>0.1283830413610878</v>
+        <v>0.2199773775587493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>31.88443</v>
       </c>
       <c r="I7">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="J7">
-        <v>0.4436835799477487</v>
+        <v>0.5409510947037116</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.167042</v>
+        <v>6.208954333333334</v>
       </c>
       <c r="N7">
-        <v>27.501126</v>
+        <v>18.626863</v>
       </c>
       <c r="O7">
-        <v>0.3345820519213343</v>
+        <v>0.3184766510460874</v>
       </c>
       <c r="P7">
-        <v>0.3345820519213342</v>
+        <v>0.3184766510460873</v>
       </c>
       <c r="Q7">
-        <v>97.42863631868667</v>
+        <v>65.98965660478778</v>
       </c>
       <c r="R7">
-        <v>876.8577268681801</v>
+        <v>593.9069094430901</v>
       </c>
       <c r="S7">
-        <v>0.1484485625827211</v>
+        <v>0.1722802930209529</v>
       </c>
       <c r="T7">
-        <v>0.1484485625827211</v>
+        <v>0.1722802930209529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.125488999999999</v>
+        <v>5.150678333333333</v>
       </c>
       <c r="H8">
-        <v>15.376467</v>
+        <v>15.452035</v>
       </c>
       <c r="I8">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="J8">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.30349533333333</v>
+        <v>5.358887333333333</v>
       </c>
       <c r="N8">
-        <v>30.910486</v>
+        <v>16.076662</v>
       </c>
       <c r="O8">
-        <v>0.376060741358942</v>
+        <v>0.2748740608528603</v>
       </c>
       <c r="P8">
-        <v>0.376060741358942</v>
+        <v>0.2748740608528603</v>
       </c>
       <c r="Q8">
-        <v>52.81045199255132</v>
+        <v>27.60190487857444</v>
       </c>
       <c r="R8">
-        <v>475.2940679329619</v>
+        <v>248.41714390717</v>
       </c>
       <c r="S8">
-        <v>0.08046541534251579</v>
+        <v>0.07206075171593274</v>
       </c>
       <c r="T8">
-        <v>0.08046541534251581</v>
+        <v>0.07206075171593274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.125488999999999</v>
+        <v>5.150678333333333</v>
       </c>
       <c r="H9">
-        <v>15.376467</v>
+        <v>15.452035</v>
       </c>
       <c r="I9">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="J9">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.927949666666666</v>
+        <v>7.927949666666668</v>
       </c>
       <c r="N9">
         <v>23.783849</v>
       </c>
       <c r="O9">
-        <v>0.2893572067197239</v>
+        <v>0.4066492881010524</v>
       </c>
       <c r="P9">
-        <v>0.2893572067197238</v>
+        <v>0.4066492881010524</v>
       </c>
       <c r="Q9">
-        <v>40.63461880905366</v>
+        <v>40.83431857585722</v>
       </c>
       <c r="R9">
-        <v>365.7115692814829</v>
+        <v>367.5088671827151</v>
       </c>
       <c r="S9">
-        <v>0.06191352954556195</v>
+        <v>0.106606834032975</v>
       </c>
       <c r="T9">
-        <v>0.06191352954556194</v>
+        <v>0.106606834032975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.125488999999999</v>
+        <v>5.150678333333333</v>
       </c>
       <c r="H10">
-        <v>15.376467</v>
+        <v>15.452035</v>
       </c>
       <c r="I10">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="J10">
-        <v>0.2139691983048911</v>
+        <v>0.2621591556960581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.167042</v>
+        <v>6.208954333333334</v>
       </c>
       <c r="N10">
-        <v>27.501126</v>
+        <v>18.626863</v>
       </c>
       <c r="O10">
-        <v>0.3345820519213343</v>
+        <v>0.3184766510460874</v>
       </c>
       <c r="P10">
-        <v>0.3345820519213342</v>
+        <v>0.3184766510460873</v>
       </c>
       <c r="Q10">
-        <v>46.98557293353799</v>
+        <v>31.98032655735611</v>
       </c>
       <c r="R10">
-        <v>422.8701564018419</v>
+        <v>287.822939016205</v>
       </c>
       <c r="S10">
-        <v>0.07159025341681333</v>
+        <v>0.08349156994715037</v>
       </c>
       <c r="T10">
-        <v>0.07159025341681333</v>
+        <v>0.08349156994715036</v>
       </c>
     </row>
   </sheetData>
